--- a/Table 4.xlsx
+++ b/Table 4.xlsx
@@ -310,9 +310,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="Times New Roman"/>
       </rPr>
       <t>sp. nov.</t>
     </r>
@@ -322,14 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +351,17 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +371,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -397,70 +399,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -480,6 +502,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -499,6 +522,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,404 +854,405 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="22.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="30">
+      <c r="A1" s="9"/>
+      <c r="B1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="C2" s="6">
         <v>35.700000000000003</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="6">
         <v>43.6</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="6">
         <v>40.1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="6">
         <v>38.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="6">
         <v>39.700000000000003</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="6">
         <v>37</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="6">
         <v>36.4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="6">
         <v>38.799999999999997</v>
-      </c>
-      <c r="J2" s="1">
-        <v>37.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="6">
         <v>1.9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="6">
         <v>3.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="6">
         <v>2.9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="6">
         <v>3.3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="6">
         <v>4.5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="6">
         <v>1.5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="6">
         <v>1.8</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="90">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="10" spans="1:10" ht="75">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" ht="90">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="60">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:10" ht="45">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
